--- a/打卡记录.xlsx
+++ b/打卡记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WorkTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99231931-074C-4325-8687-D6ADC9B52B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31390730-9CF9-417E-8264-B69A3F192214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -459,17 +459,19 @@
       <c r="B6" s="5">
         <v>0.36527777777777776</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>0.86250000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45876</v>
       </c>
       <c r="B7" s="5">
-        <v>0.40902777777777777</v>
+        <v>0.36319444444444443</v>
       </c>
       <c r="C7" s="5">
-        <v>0.74722222222222223</v>
+        <v>0.84236111111111112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,22 +498,431 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45870</v>
+        <v>45881</v>
       </c>
       <c r="B10" s="3">
-        <v>0.32222222222222224</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="C10" s="3">
-        <v>0.9</v>
+        <v>0.88749999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2">
+        <v>45882</v>
+      </c>
       <c r="B11" s="5">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.36875000000000002</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.84791666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.79027777777777775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.75624999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.36527777777777776</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.84583333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.84861111111111109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.82847222222222228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.36527777777777776</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.83472222222222225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.79236111111111107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B20" s="3">
         <v>0.40902777777777777</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C20" s="3">
         <v>0.74722222222222223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.36875000000000002</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.86805555555555558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45840</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.81041666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45841</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.90347222222222223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45842</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.78194444444444444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.36875000000000002</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.87916666666666665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45846</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.89375000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.91805555555555551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.77430555555555558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.77916666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.77916666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.87708333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.87777777777777777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.87152777777777779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.87916666666666665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.36875000000000002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.87847222222222221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.72777777777777775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.86875000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45861</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.85833333333333328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.85833333333333328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.36527777777777776</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.93888888888888888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.74027777777777781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45865</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.8354166666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45867</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.37013888888888891</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.83680555555555558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.81527777777777777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.83611111111111114</v>
       </c>
     </row>
   </sheetData>
